--- a/Symphony/2021/Others/Document/Final/Mugdho Corporation Net Profit Top Sheet.xlsx
+++ b/Symphony/2021/Others/Document/Final/Mugdho Corporation Net Profit Top Sheet.xlsx
@@ -19,12 +19,6 @@
     <t xml:space="preserve">Mugdho Corporation </t>
   </si>
   <si>
-    <t>May_2020</t>
-  </si>
-  <si>
-    <t>June_2020</t>
-  </si>
-  <si>
     <t>Month</t>
   </si>
   <si>
@@ -94,10 +88,16 @@
     <t>April_2021</t>
   </si>
   <si>
-    <t>Net Profit Statement of May'2020-April'2021</t>
-  </si>
-  <si>
     <t>Sales Value</t>
+  </si>
+  <si>
+    <t>May_2021</t>
+  </si>
+  <si>
+    <t>June_2021</t>
+  </si>
+  <si>
+    <t>Net Profit Statement of July'2020-June'2021</t>
   </si>
 </sst>
 </file>
@@ -573,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,7 +612,7 @@
     </row>
     <row r="2" spans="1:11" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -627,7 +627,7 @@
     </row>
     <row r="3" spans="1:11" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -642,7 +642,7 @@
     </row>
     <row r="4" spans="1:11" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" s="22"/>
       <c r="C4" s="22"/>
@@ -657,227 +657,227 @@
     </row>
     <row r="5" spans="1:11" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="F5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="H5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="I5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="16" t="s">
+    </row>
+    <row r="6" spans="1:11" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="2" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>1</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="9">
-        <v>11716664.655000001</v>
-      </c>
-      <c r="D6" s="9">
-        <v>12139490</v>
-      </c>
-      <c r="E6" s="9">
-        <v>311164.78500000003</v>
-      </c>
-      <c r="F6" s="9">
-        <v>70070</v>
+      <c r="C6" s="4">
+        <v>15512519.555000002</v>
+      </c>
+      <c r="D6" s="4">
+        <v>16146235</v>
+      </c>
+      <c r="E6" s="4">
+        <v>402128.76500000001</v>
+      </c>
+      <c r="F6" s="4">
+        <v>84909</v>
       </c>
       <c r="G6" s="17">
-        <f>E6+F6</f>
-        <v>381234.78500000003</v>
+        <f t="shared" ref="G6:G17" si="0">E6+F6</f>
+        <v>487037.76500000001</v>
       </c>
       <c r="H6" s="3">
-        <v>72200</v>
+        <v>71450</v>
       </c>
       <c r="I6" s="3">
-        <v>72471</v>
+        <v>56638</v>
       </c>
       <c r="J6" s="16">
         <f>H6+I6</f>
-        <v>144671</v>
+        <v>128088</v>
       </c>
       <c r="K6" s="14">
         <f>G6-J6</f>
-        <v>236563.78500000003</v>
+        <v>358949.76500000001</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="7">
         <v>2</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C7" s="4">
-        <v>12939795.025</v>
+        <v>12436401.079999998</v>
       </c>
       <c r="D7" s="4">
-        <v>13736750</v>
+        <v>12689990</v>
       </c>
       <c r="E7" s="4">
-        <v>336509.90500000009</v>
+        <v>317775.41500000004</v>
       </c>
       <c r="F7" s="4">
-        <v>185755</v>
+        <v>82890</v>
       </c>
       <c r="G7" s="17">
-        <f>E7+F7</f>
-        <v>522264.90500000009</v>
+        <f t="shared" si="0"/>
+        <v>400665.41500000004</v>
       </c>
       <c r="H7" s="3">
         <v>48700</v>
       </c>
       <c r="I7" s="3">
-        <v>80705</v>
+        <v>44168</v>
       </c>
       <c r="J7" s="16">
-        <f t="shared" ref="J7:J17" si="0">H7+I7</f>
-        <v>129405</v>
+        <f t="shared" ref="J7:J17" si="1">H7+I7</f>
+        <v>92868</v>
       </c>
       <c r="K7" s="14">
-        <f t="shared" ref="K7:K17" si="1">G7-J7</f>
-        <v>392859.90500000009</v>
+        <f t="shared" ref="K7:K17" si="2">G7-J7</f>
+        <v>307797.41500000004</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="4">
-        <v>15512519.555000002</v>
+        <v>19800275.029999997</v>
       </c>
       <c r="D8" s="4">
-        <v>16146235</v>
+        <v>19128525</v>
       </c>
       <c r="E8" s="4">
-        <v>402128.76500000001</v>
+        <v>477675.54500000004</v>
       </c>
       <c r="F8" s="4">
-        <v>84909</v>
+        <v>220317</v>
       </c>
       <c r="G8" s="17">
-        <f t="shared" ref="G8:G17" si="2">E8+F8</f>
-        <v>487037.76500000001</v>
+        <f t="shared" si="0"/>
+        <v>697992.54500000004</v>
       </c>
       <c r="H8" s="3">
-        <v>71450</v>
+        <v>80700</v>
       </c>
       <c r="I8" s="3">
-        <v>56638</v>
+        <v>84492</v>
       </c>
       <c r="J8" s="16">
+        <f t="shared" si="1"/>
+        <v>165192</v>
+      </c>
+      <c r="K8" s="14">
+        <f t="shared" si="2"/>
+        <v>532800.54500000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>4</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="4">
+        <v>17706989.390000001</v>
+      </c>
+      <c r="D9" s="4">
+        <v>15831770</v>
+      </c>
+      <c r="E9" s="4">
+        <v>386224.44</v>
+      </c>
+      <c r="F9" s="4">
+        <v>94507</v>
+      </c>
+      <c r="G9" s="17">
         <f t="shared" si="0"/>
-        <v>128088</v>
-      </c>
-      <c r="K8" s="14">
+        <v>480731.44</v>
+      </c>
+      <c r="H9" s="3">
+        <v>80700</v>
+      </c>
+      <c r="I9" s="3">
+        <v>72103</v>
+      </c>
+      <c r="J9" s="16">
         <f t="shared" si="1"/>
-        <v>358949.76500000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>4</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="4">
-        <v>12436401.079999998</v>
-      </c>
-      <c r="D9" s="4">
-        <v>12689990</v>
-      </c>
-      <c r="E9" s="4">
-        <v>317775.41500000004</v>
-      </c>
-      <c r="F9" s="4">
-        <v>82890</v>
-      </c>
-      <c r="G9" s="17">
+        <v>152803</v>
+      </c>
+      <c r="K9" s="14">
         <f t="shared" si="2"/>
-        <v>400665.41500000004</v>
-      </c>
-      <c r="H9" s="3">
-        <v>48700</v>
-      </c>
-      <c r="I9" s="3">
-        <v>44168</v>
-      </c>
-      <c r="J9" s="16">
-        <f t="shared" si="0"/>
-        <v>92868</v>
-      </c>
-      <c r="K9" s="14">
-        <f t="shared" si="1"/>
-        <v>307797.41500000004</v>
+        <v>327928.44</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="7">
         <v>5</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="4">
-        <v>19800275.029999997</v>
+        <v>13103323.1951</v>
       </c>
       <c r="D10" s="4">
-        <v>19128525</v>
+        <v>13176160</v>
       </c>
       <c r="E10" s="4">
-        <v>477675.54500000004</v>
+        <v>321139.38991428528</v>
       </c>
       <c r="F10" s="4">
-        <v>220317</v>
+        <v>86599</v>
       </c>
       <c r="G10" s="17">
-        <f t="shared" si="2"/>
-        <v>697992.54500000004</v>
+        <f t="shared" si="0"/>
+        <v>407738.38991428528</v>
       </c>
       <c r="H10" s="3">
         <v>80700</v>
       </c>
       <c r="I10" s="3">
-        <v>84492</v>
+        <v>73480</v>
       </c>
       <c r="J10" s="16">
-        <f t="shared" si="0"/>
-        <v>165192</v>
+        <f t="shared" si="1"/>
+        <v>154180</v>
       </c>
       <c r="K10" s="14">
-        <f t="shared" si="1"/>
-        <v>532800.54500000004</v>
+        <f t="shared" si="2"/>
+        <v>253558.38991428528</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="19.5" x14ac:dyDescent="0.25">
@@ -888,113 +888,113 @@
         <v>19</v>
       </c>
       <c r="C11" s="4">
-        <v>17706989.390000001</v>
+        <v>16630699.337014288</v>
       </c>
       <c r="D11" s="4">
-        <v>15831770</v>
+        <v>14108990</v>
       </c>
       <c r="E11" s="4">
-        <v>386224.44</v>
+        <v>342979.17258571379</v>
       </c>
       <c r="F11" s="4">
-        <v>94507</v>
+        <v>199869</v>
       </c>
       <c r="G11" s="17">
-        <f t="shared" si="2"/>
-        <v>480731.44</v>
+        <f t="shared" si="0"/>
+        <v>542848.17258571379</v>
       </c>
       <c r="H11" s="3">
         <v>80700</v>
       </c>
       <c r="I11" s="3">
-        <v>72103</v>
+        <v>80522</v>
       </c>
       <c r="J11" s="16">
-        <f t="shared" si="0"/>
-        <v>152803</v>
+        <f t="shared" si="1"/>
+        <v>161222</v>
       </c>
       <c r="K11" s="14">
-        <f t="shared" si="1"/>
-        <v>327928.44</v>
+        <f t="shared" si="2"/>
+        <v>381626.17258571379</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="A12" s="3">
         <v>7</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="4">
-        <v>13103323.1951</v>
+        <v>10149461.365</v>
       </c>
       <c r="D12" s="4">
-        <v>13176160</v>
+        <v>13468005</v>
       </c>
       <c r="E12" s="4">
-        <v>321139.38991428528</v>
+        <v>305231.82099999994</v>
       </c>
       <c r="F12" s="4">
-        <v>86599</v>
+        <v>61746</v>
       </c>
       <c r="G12" s="17">
+        <f t="shared" si="0"/>
+        <v>366977.82099999994</v>
+      </c>
+      <c r="H12" s="3">
+        <v>70600</v>
+      </c>
+      <c r="I12" s="3">
+        <v>147444</v>
+      </c>
+      <c r="J12" s="16">
+        <f t="shared" si="1"/>
+        <v>218044</v>
+      </c>
+      <c r="K12" s="14">
         <f t="shared" si="2"/>
-        <v>407738.38991428528</v>
-      </c>
-      <c r="H12" s="3">
-        <v>80700</v>
-      </c>
-      <c r="I12" s="3">
-        <v>73480</v>
-      </c>
-      <c r="J12" s="16">
-        <f t="shared" si="0"/>
-        <v>154180</v>
-      </c>
-      <c r="K12" s="14">
-        <f t="shared" si="1"/>
-        <v>253558.38991428528</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+        <v>148933.82099999994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="2" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
         <v>8</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="4">
-        <v>16630699.337014288</v>
+        <v>11290644.751985716</v>
       </c>
       <c r="D13" s="4">
-        <v>14108990</v>
+        <v>10838070</v>
       </c>
       <c r="E13" s="4">
-        <v>342979.17258571379</v>
+        <v>258643.4563142854</v>
       </c>
       <c r="F13" s="4">
-        <v>199869</v>
+        <v>65369</v>
       </c>
       <c r="G13" s="17">
+        <f t="shared" si="0"/>
+        <v>324012.4563142854</v>
+      </c>
+      <c r="H13" s="3">
+        <v>75600</v>
+      </c>
+      <c r="I13" s="3">
+        <v>66027</v>
+      </c>
+      <c r="J13" s="16">
+        <f t="shared" si="1"/>
+        <v>141627</v>
+      </c>
+      <c r="K13" s="14">
         <f t="shared" si="2"/>
-        <v>542848.17258571379</v>
-      </c>
-      <c r="H13" s="3">
-        <v>80700</v>
-      </c>
-      <c r="I13" s="3">
-        <v>80522</v>
-      </c>
-      <c r="J13" s="16">
-        <f t="shared" si="0"/>
-        <v>161222</v>
-      </c>
-      <c r="K13" s="14">
-        <f t="shared" si="1"/>
-        <v>381626.17258571379</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="19.5" x14ac:dyDescent="0.25">
+        <v>182385.4563142854</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="2" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>9</v>
       </c>
@@ -1002,190 +1002,198 @@
         <v>22</v>
       </c>
       <c r="C14" s="4">
-        <v>10149461.365</v>
+        <v>12083884.218499999</v>
       </c>
       <c r="D14" s="4">
-        <v>13468005</v>
+        <v>12081660</v>
       </c>
       <c r="E14" s="4">
-        <v>305231.82099999994</v>
+        <v>292705.08680000005</v>
       </c>
       <c r="F14" s="4">
-        <v>61746</v>
+        <v>152641</v>
       </c>
       <c r="G14" s="17">
+        <f t="shared" si="0"/>
+        <v>445346.08680000005</v>
+      </c>
+      <c r="H14" s="3">
+        <v>75600</v>
+      </c>
+      <c r="I14" s="3">
+        <v>65235</v>
+      </c>
+      <c r="J14" s="16">
+        <f t="shared" si="1"/>
+        <v>140835</v>
+      </c>
+      <c r="K14" s="14">
         <f t="shared" si="2"/>
-        <v>366977.82099999994</v>
-      </c>
-      <c r="H14" s="3">
-        <v>70600</v>
-      </c>
-      <c r="I14" s="3">
-        <v>147444</v>
-      </c>
-      <c r="J14" s="16">
-        <f t="shared" si="0"/>
-        <v>218044</v>
-      </c>
-      <c r="K14" s="14">
-        <f t="shared" si="1"/>
-        <v>148933.82099999994</v>
+        <v>304511.08680000005</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="2" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+      <c r="A15" s="3">
         <v>10</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="4">
-        <v>11290644.751985716</v>
+        <v>9046825.3500000015</v>
       </c>
       <c r="D15" s="4">
-        <v>10838070</v>
+        <v>7235245</v>
       </c>
       <c r="E15" s="4">
-        <v>258643.4563142854</v>
+        <v>175065.27500000008</v>
       </c>
       <c r="F15" s="4">
-        <v>65369</v>
+        <v>32765</v>
       </c>
       <c r="G15" s="17">
+        <f t="shared" si="0"/>
+        <v>207830.27500000008</v>
+      </c>
+      <c r="H15" s="3">
+        <v>75100</v>
+      </c>
+      <c r="I15" s="3">
+        <v>58354</v>
+      </c>
+      <c r="J15" s="16">
+        <f t="shared" si="1"/>
+        <v>133454</v>
+      </c>
+      <c r="K15" s="14">
         <f t="shared" si="2"/>
-        <v>324012.4563142854</v>
-      </c>
-      <c r="H15" s="3">
-        <v>75600</v>
-      </c>
-      <c r="I15" s="3">
-        <v>66027</v>
-      </c>
-      <c r="J15" s="16">
+        <v>74376.275000000081</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="2" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>11</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="9">
+        <v>9847481.7844999991</v>
+      </c>
+      <c r="D16" s="9">
+        <v>10756818.775</v>
+      </c>
+      <c r="E16" s="9">
+        <v>273090.1750000001</v>
+      </c>
+      <c r="F16" s="9">
+        <v>58653</v>
+      </c>
+      <c r="G16" s="17">
         <f t="shared" si="0"/>
-        <v>141627</v>
-      </c>
-      <c r="K15" s="14">
+        <v>331743.1750000001</v>
+      </c>
+      <c r="H16" s="3">
+        <v>112800</v>
+      </c>
+      <c r="I16" s="3">
+        <v>57454</v>
+      </c>
+      <c r="J16" s="16">
         <f t="shared" si="1"/>
-        <v>182385.4563142854</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="2" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>11</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="4">
-        <v>12083884.218499999</v>
-      </c>
-      <c r="D16" s="4">
-        <v>12081660</v>
-      </c>
-      <c r="E16" s="4">
-        <v>292705.08680000005</v>
-      </c>
-      <c r="F16" s="4">
-        <v>152641</v>
-      </c>
-      <c r="G16" s="17">
+        <v>170254</v>
+      </c>
+      <c r="K16" s="14">
         <f t="shared" si="2"/>
-        <v>445346.08680000005</v>
-      </c>
-      <c r="H16" s="3">
-        <v>75600</v>
-      </c>
-      <c r="I16" s="3">
-        <v>65235</v>
-      </c>
-      <c r="J16" s="16">
-        <f t="shared" si="0"/>
-        <v>140835</v>
-      </c>
-      <c r="K16" s="14">
-        <f t="shared" si="1"/>
-        <v>304511.08680000005</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="2" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
+        <v>161489.1750000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>12</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="4">
-        <v>9046825.3500000015</v>
-      </c>
-      <c r="D17" s="4">
-        <v>7235245</v>
+      <c r="B17" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="9">
+        <v>16809169.768299997</v>
+      </c>
+      <c r="D17" s="9">
+        <v>12131050</v>
       </c>
       <c r="E17" s="4">
-        <v>175065.27500000008</v>
+        <v>300579.35170000012</v>
       </c>
       <c r="F17" s="4">
-        <v>40000</v>
+        <v>160000</v>
       </c>
       <c r="G17" s="17">
+        <f t="shared" si="0"/>
+        <v>460579.35170000012</v>
+      </c>
+      <c r="H17" s="3">
+        <v>75300</v>
+      </c>
+      <c r="I17" s="3">
+        <v>61737</v>
+      </c>
+      <c r="J17" s="16">
+        <f t="shared" si="1"/>
+        <v>137037</v>
+      </c>
+      <c r="K17" s="14">
         <f t="shared" si="2"/>
-        <v>215065.27500000008</v>
-      </c>
-      <c r="H17" s="3">
-        <v>75100</v>
-      </c>
-      <c r="I17" s="3">
-        <v>58354</v>
-      </c>
-      <c r="J17" s="16">
-        <f t="shared" si="0"/>
-        <v>133454</v>
-      </c>
-      <c r="K17" s="14">
-        <f t="shared" si="1"/>
-        <v>81611.275000000081</v>
+        <v>323542.35170000012</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="14">
-        <f t="shared" ref="C18:J18" si="3">SUM(C6:C17)</f>
-        <v>162417482.95259997</v>
+        <f>SUM(C6:C17)</f>
+        <v>164417674.82539999</v>
       </c>
       <c r="D18" s="14">
         <f>SUM(D6:D17)</f>
-        <v>160580890</v>
+        <v>157592518.77500001</v>
       </c>
       <c r="E18" s="14">
-        <f t="shared" si="3"/>
-        <v>3927243.0566142844</v>
+        <f>SUM(E6:E17)</f>
+        <v>3853237.8933142847</v>
       </c>
       <c r="F18" s="14">
-        <f t="shared" si="3"/>
-        <v>1344672</v>
+        <f>SUM(F6:F17)</f>
+        <v>1300265</v>
       </c>
       <c r="G18" s="18">
-        <f t="shared" si="3"/>
-        <v>5271915.0566142844</v>
+        <f>SUM(G6:G17)</f>
+        <v>5153502.8933142852</v>
       </c>
       <c r="H18" s="6">
-        <f t="shared" si="3"/>
-        <v>860750</v>
+        <f>SUM(H6:H17)</f>
+        <v>927950</v>
       </c>
       <c r="I18" s="6">
-        <f t="shared" si="3"/>
-        <v>901639</v>
+        <f>SUM(I6:I17)</f>
+        <v>867654</v>
       </c>
       <c r="J18" s="19">
-        <f t="shared" si="3"/>
-        <v>1762389</v>
+        <f>SUM(J6:J17)</f>
+        <v>1795604</v>
       </c>
       <c r="K18" s="13">
         <f>SUM(K6:K17)</f>
-        <v>3509526.0566142844</v>
+        <v>3357898.8933142847</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J22" s="1"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C28" s="2">
+        <v>273090.1750000001</v>
       </c>
     </row>
   </sheetData>
